--- a/soberano/test_cases/payroll_expense_record_test_cases.xlsx
+++ b/soberano/test_cases/payroll_expense_record_test_cases.xlsx
@@ -85,12 +85,15 @@
     <t xml:space="preserve">It fails due to future expense date.</t>
   </si>
   <si>
+    <t xml:space="preserve">It fails due to not enough rights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unauthorized user17</t>
+  </si>
+  <si>
     <t xml:space="preserve">It fails due to wrong field values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Unauthorized user17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unauthorized user18</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">Authorized user19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It fails due to not enough rights.</t>
   </si>
   <si>
     <t xml:space="preserve">Authorized user7</t>
@@ -200,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,10 +218,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,18 +240,18 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
@@ -510,19 +506,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
@@ -542,13 +538,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1E-006</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
@@ -562,19 +558,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>13</v>
@@ -591,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>11</v>
@@ -603,7 +599,7 @@
         <v>3000000</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>13</v>
@@ -620,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -646,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
@@ -658,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>13</v>
@@ -675,19 +671,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>-2000</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
@@ -701,19 +697,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1.000001</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>13</v>
@@ -730,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -756,19 +752,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-2000</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
@@ -782,13 +778,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>3000000</v>
@@ -808,13 +804,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2000</v>
@@ -834,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1.000001</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>13</v>
@@ -863,19 +859,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>14</v>
@@ -889,19 +885,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>3000000</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>14</v>
@@ -915,10 +911,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>11</v>
@@ -927,7 +923,7 @@
         <v>1E-006</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>13</v>
@@ -944,7 +940,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>22</v>
@@ -956,7 +952,7 @@
         <v>2000</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
@@ -970,13 +966,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1E-006</v>
@@ -1031,7 +1027,7 @@
       <c r="E37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5"/>
+      <c r="B38" s="3"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,14 +1040,14 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="5"/>
+      <c r="B42" s="3"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="5"/>
+      <c r="B44" s="3"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
